--- a/StaffProject20.xlsx
+++ b/StaffProject20.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Staff Name</t>
   </si>
@@ -23,193 +23,190 @@
     <t>Stream</t>
   </si>
   <si>
-    <t>Winona Ryder</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
+    <t>Austin Powers</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>Tina Fey</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Joan Rivers</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>Frank Underwood</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>Severus Snape</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>falling in love</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Christopher Hitchens</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>Morpheus</t>
-  </si>
-  <si>
-    <t>searching for the messiah</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>piquing public interest</t>
-  </si>
-  <si>
-    <t>Erik "Magneto" Lehnsherr</t>
-  </si>
-  <si>
-    <t>building an army</t>
-  </si>
-  <si>
-    <t>Luis Suarez</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Gordon Ramsay</t>
-  </si>
-  <si>
-    <t>cooking fancy food</t>
-  </si>
-  <si>
-    <t>Benito Mussolini</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>Professor James Moriarty</t>
-  </si>
-  <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>running for the senate</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>Peter Parker</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity</t>
-  </si>
-  <si>
-    <t>William Shatner</t>
-  </si>
-  <si>
-    <t>constructing an ironic public image</t>
-  </si>
-  <si>
-    <t>Phoebe Buffay</t>
-  </si>
-  <si>
-    <t>singing goofy songs</t>
-  </si>
-  <si>
-    <t>General George Patton</t>
-  </si>
-  <si>
-    <t>planning tank battles</t>
-  </si>
-  <si>
-    <t>Wayne Gretzky</t>
-  </si>
-  <si>
-    <t>playing ice hockey</t>
-  </si>
-  <si>
-    <t>Eric Clapton</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>punishing terrorists</t>
-  </si>
-  <si>
-    <t>Agent Smith</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Bane</t>
-  </si>
-  <si>
-    <t>breaking heads</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>promoting new technologies</t>
-  </si>
-  <si>
-    <t>Peter Rabbit</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>Inspector Endeavour Morse</t>
-  </si>
-  <si>
-    <t>interpreting evidence</t>
-  </si>
-  <si>
-    <t>Richie Rich</t>
-  </si>
-  <si>
-    <t>squandering money</t>
-  </si>
-  <si>
-    <t>Wesley Crusher</t>
-  </si>
-  <si>
-    <t>studying science</t>
+    <t>Thor Odinson</t>
+  </si>
+  <si>
+    <t>starting thunderstorms</t>
+  </si>
+  <si>
+    <t>Rachel Green</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Groot</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>Mr. Krabs</t>
+  </si>
+  <si>
+    <t>running a fast-food business</t>
+  </si>
+  <si>
+    <t>Miss Jane Marple</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Sauron</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>Dirty Harry Callahan</t>
+  </si>
+  <si>
+    <t>Charles Atlas</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>JD Salinger</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Britney Spears</t>
+  </si>
+  <si>
+    <t>flirting with rednecks</t>
+  </si>
+  <si>
+    <t>Daenerys Targaryen</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Christopher Columbus</t>
+  </si>
+  <si>
+    <t>exploring the new world</t>
+  </si>
+  <si>
+    <t>John Dillinger</t>
+  </si>
+  <si>
+    <t>eluding the FBI</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>performing household chores</t>
+  </si>
+  <si>
+    <t>Sarah Palin</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>Justin Timberlake</t>
+  </si>
+  <si>
+    <t>entertaining teenagers</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>Virginia Woolf</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
+  </si>
+  <si>
+    <t>building airplanes</t>
+  </si>
+  <si>
+    <t>Eric Cartman</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans</t>
+  </si>
+  <si>
+    <t>Jimmy Carter</t>
+  </si>
+  <si>
+    <t>promoting world peace</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Margaret Thatcher</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
   </si>
 </sst>
 </file>
@@ -267,8 +264,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="25.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.2421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.98828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.8125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -313,51 +310,51 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -368,7 +365,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -379,7 +376,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -390,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -409,29 +406,29 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -439,21 +436,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -461,10 +458,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -472,65 +469,65 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -538,65 +535,65 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
@@ -604,13 +601,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
